--- a/docs/mySoundsGantt.xlsx
+++ b/docs/mySoundsGantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RODRIGODCSTL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\MySounds\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{649280EE-BFD1-4254-8A8E-6F4BE145409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDB946-68F7-438C-B040-2A36F63B6E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{A29F5D2D-CC89-4920-B613-066EE70C1774}"/>
   </bookViews>
@@ -218,19 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,6 +251,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,44 +410,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -461,9 +460,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8CA1C9-43DD-458B-B936-59F06ADC606F}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,10 +846,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="27">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C2" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D2" s="28"/>
       <c r="M2" s="17"/>
       <c r="P2" t="s">
         <v>53</v>
@@ -878,8 +883,15 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F4" s="30">
+        <v>6.25E-2</v>
+      </c>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
@@ -903,23 +915,33 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E6" s="32">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E7" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="29">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
@@ -943,63 +965,105 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E10" s="33">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E11" s="33">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E12" s="33">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E13" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E14" s="33">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E15" s="33">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D16" s="31">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E16" s="33">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -1040,28 +1104,36 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1085,21 +1157,27 @@
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M24" s="17"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1334,10 +1412,21 @@
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="26"/>
+      <c r="B51" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C51" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D51" s="31">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E51" s="30">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F51" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -1375,7 +1464,7 @@
       <c r="M53" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/mySoundsGantt.xlsx
+++ b/docs/mySoundsGantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\MySounds\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDB946-68F7-438C-B040-2A36F63B6E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D737E5EC-1A38-4E5D-9EC9-7F8BB1FFC4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{A29F5D2D-CC89-4920-B613-066EE70C1774}"/>
+    <workbookView xWindow="5160" yWindow="585" windowWidth="27615" windowHeight="18840" xr2:uid="{A29F5D2D-CC89-4920-B613-066EE70C1774}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Tâches à realiser</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Page d'accueil affiche 20 musiques aléatoires</t>
+  </si>
+  <si>
+    <t>Remplir le journal de bord</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,7 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -461,12 +463,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8CA1C9-43DD-458B-B936-59F06ADC606F}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +835,7 @@
       <c r="L1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -839,255 +844,257 @@
       <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="24"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="M2" s="17"/>
+      <c r="C2" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M2" s="16"/>
       <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="18"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="17"/>
       <c r="P3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="26"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E4" s="31">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="E4" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F4" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E6" s="32">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M6" s="17"/>
+      <c r="B6" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E7" s="31">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M7" s="17"/>
+      <c r="B7" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M8" s="17"/>
+      <c r="B8" s="27">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="18"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D10" s="31">
+      <c r="B10" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D10" s="29">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E10" s="33">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M10" s="17"/>
+      <c r="E10" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="B11" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D11" s="31">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E11" s="33">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M11" s="17"/>
+      <c r="E11" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D12" s="33">
+      <c r="B12" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D12" s="31">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E12" s="33">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M12" s="17"/>
+      <c r="E12" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D13" s="31">
+      <c r="B13" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D13" s="29">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E13" s="31">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M13" s="17"/>
+      <c r="E13" s="29">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="B14" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D14" s="29">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E14" s="33">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M14" s="17"/>
+      <c r="E14" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="B15" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D15" s="29">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E15" s="33">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M15" s="17"/>
+      <c r="E15" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="29">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D16" s="31">
+      <c r="B16" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D16" s="29">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E16" s="33">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="M16" s="17"/>
+      <c r="E16" s="31">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1098,49 +1105,62 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M19" s="17"/>
+      <c r="B19" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H19" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M20" s="17"/>
+      <c r="B20" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H20" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M21" s="17"/>
+      <c r="B21" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H21" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M22" s="17"/>
+      <c r="K22" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1151,40 +1171,49 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M24" s="17"/>
+      <c r="B24" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I24" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M25" s="17"/>
+      <c r="B25" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I25" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M26" s="17"/>
+      <c r="B26" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I26" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1195,48 +1224,73 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="M28" s="17"/>
+      <c r="B28" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J28" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="M29" s="17"/>
+      <c r="B29" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J29" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="M30" s="17"/>
+      <c r="B30" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K30" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="M31" s="17"/>
+      <c r="B31" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J31" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="M32" s="17"/>
+      <c r="B32" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J32" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1247,27 +1301,37 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="M34" s="17"/>
+      <c r="B34" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I34" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="M35" s="17"/>
+      <c r="B35" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K35" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1278,20 +1342,25 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="M37" s="17"/>
+      <c r="B37" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L37" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1302,166 +1371,257 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="M39" s="17"/>
+      <c r="B39" s="27">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H39" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I39" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="18"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="M41" s="17"/>
+      <c r="B41" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F41" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="M42" s="17"/>
+      <c r="B42" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F42" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G43" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="M44" s="17"/>
+      <c r="B44" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="M45" s="17"/>
+      <c r="B45" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="M46" s="17"/>
+      <c r="B46" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G46" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="M47" s="17"/>
+      <c r="B47" s="27">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H47" s="29">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M47" s="16"/>
     </row>
     <row r="48" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="18"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="M49" s="17"/>
+      <c r="B49" s="27">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L49" s="25"/>
+      <c r="M49" s="16"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="M50" s="17"/>
+      <c r="B50" s="27">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M50" s="35"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="27">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="29">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F51" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="F51" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="27">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="J52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="L52" s="28">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M52" s="34">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="18"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="17"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="19"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
